--- a/doc/DB設計 テーブル定義書 .xlsx
+++ b/doc/DB設計 テーブル定義書 .xlsx
@@ -15,15 +15,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mjdk15JUi4nF3PZ8zvkDXKFNmb88w=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="SfuXak/OWpakwD5+2nxDR3H6sxV8DAQDJA2PvIfqurY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="88">
   <si>
     <t>テーブル定義書</t>
   </si>
@@ -190,6 +190,19 @@
     <t>SQL QUERY</t>
   </si>
   <si>
+    <t>CREATE TABLE kadaiDB_202305.t_onair_kanri (
+  `ID` varchar(8) NOT NULL,
+  `ONAIR_DAY` DATETIME DEFAULT NULL,
+  `PROGRAM_ID` varchar(8) DEFAULT NULL,
+  `TALENT_ID` varchar(8) DEFAULT NULL,
+  `NENTSUKI` int(6) DEFAULT NULL,
+  `SHU` int(1) DEFAULT NULL,
+  `DELETE_FLG` int(1) DEFAULT NULL,
+  `TOROKU_DAY` date DEFAULT NULL,
+  `KOUSHIN_DAY` date DEFAULT NULL
+)</t>
+  </si>
+  <si>
     <t>TALENT_NAME</t>
   </si>
   <si>
@@ -205,6 +218,17 @@
     <t>ジャンルID</t>
   </si>
   <si>
+    <t xml:space="preserve">CREATE TABLE kadaiDB_202305.m_talent (
+  `TALENT_ID` varchar(8) NOT NULL,
+  `TALENT_NAME` varchar(30) DEFAULT NULL,
+  `GENRE_ID` int(1) DEFAULT NULL,
+  `DELETE_FLG` int(1) DEFAULT NULL,
+  `TOROKU_DAY` date DEFAULT NULL,
+  `KOUSHIN_DAY` date DEFAULT NULL
+)
+</t>
+  </si>
+  <si>
     <t>PROGRAM_NAME</t>
   </si>
   <si>
@@ -215,6 +239,17 @@
   </si>
   <si>
     <t>チャンネルID</t>
+  </si>
+  <si>
+    <t>CREATE TABLE kadaiDB_202305.m_program (
+  `PROGRAM_ID` varchar(8) NOT NULL,
+  `PROGRAM_NAME` varchar(30) DEFAULT NULL,
+  `CHANEL_ID` int(1) DEFAULT NULL,
+  `GENRE_ID` int(1) DEFAULT NULL,
+  `DELETE_FLG` int(1) DEFAULT NULL,
+  `TOROKU_DAY` date DEFAULT NULL,
+  `KOUSHIN_DAY` date DEFAULT NULL
+)</t>
   </si>
   <si>
     <t xml:space="preserve">Java課題(2023上期）			</t>
@@ -232,6 +267,16 @@
     <t>エリアID</t>
   </si>
   <si>
+    <t xml:space="preserve">CREATE TABLE kadaiDB_202305.m_chanel_kyoku (
+  `CHANEL_ID` int(1) NOT NULL,
+  `CHANEL_KYOKU_ID` int(1) DEFAULT NULL,
+  `AREA_ID` int(1) DEFAULT NULL,
+  `DELETE_FLG` int(1) DEFAULT NULL,
+  `TOROKU_DAY` date DEFAULT NULL,
+  `KOUSHIN_DAY` date DEFAULT NULL
+) </t>
+  </si>
+  <si>
     <t xml:space="preserve">    M_KBN_GENRE</t>
   </si>
   <si>
@@ -242,6 +287,17 @@
   </si>
   <si>
     <t>ジャンル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE TABLE kadaiDB_202305.m_kbn_genre (
+  `GENRE_ID` int(1) NOT NULL,
+  `JYUNJYO` int(1) NOT NULL,
+  `GENRE` varchar(30) DEFAULT NULL,
+  `DELETE_FLG` int(1) DEFAULT NULL,
+  `TOROKU_DAY` date DEFAULT NULL,
+  `KOUSHIN_DAY` date DEFAULT NULL
+) </t>
   </si>
   <si>
     <t>NENTSUKI</t>
@@ -270,6 +326,17 @@
   <si>
     <t>週の終了日（土曜日）</t>
   </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE kadaiDB_202305.m_nentsuki_shu_kanri (
+  `NENTSUKI` int(4) NOT NULL,
+  `SHU` int(1) NOT NULL,
+  `SHU_FROM` date DEFAULT NULL,
+  `SHU_TO` date DEFAULT NULL,
+  `TOROKU_DAY` date DEFAULT NULL,
+  `KOUSHIN_DAY` date DEFAULT NULL
+)
+</t>
+  </si>
 </sst>
 </file>
 
@@ -278,7 +345,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -308,6 +375,11 @@
     </font>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -443,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -465,10 +537,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -484,10 +556,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -496,9 +568,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -514,18 +583,14 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,23 +601,18 @@
     <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -561,10 +621,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="12" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -572,11 +629,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,7 +883,6 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="7.13"/>
-    <col customWidth="1" min="2" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
@@ -946,7 +1005,9 @@
       <c r="H23" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="16"/>
+      <c r="I23" s="16">
+        <v>45126.0</v>
+      </c>
       <c r="K23" s="5"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -1970,11 +2031,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
     <col customWidth="1" min="2" max="2" width="7.13"/>
     <col customWidth="1" min="3" max="3" width="19.0"/>
     <col customWidth="1" min="4" max="4" width="25.5"/>
-    <col customWidth="1" min="5" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
@@ -2105,7 +2164,7 @@
         <v>7.0</v>
       </c>
       <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="27"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
@@ -2118,7 +2177,7 @@
         <v>8.0</v>
       </c>
       <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="27"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
@@ -2131,7 +2190,7 @@
         <v>9.0</v>
       </c>
       <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="27"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
@@ -2144,7 +2203,7 @@
         <v>10.0</v>
       </c>
       <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="27"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -2161,7 +2220,7 @@
         <v>11.0</v>
       </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="27"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -2172,7 +2231,7 @@
         <v>12.0</v>
       </c>
       <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="27"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -3165,21 +3224,21 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="K6:P13"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E7:H7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink display="T_ONAIR_KANRI" location="T_ONAIR_KANRI!A1" ref="C4"/>
@@ -3206,7 +3265,6 @@
     <col customWidth="1" min="1" max="1" width="4.63"/>
     <col customWidth="1" min="2" max="3" width="8.38"/>
     <col customWidth="1" min="4" max="4" width="8.63"/>
-    <col customWidth="1" min="5" max="5" width="12.63"/>
     <col customWidth="1" min="6" max="6" width="19.75"/>
     <col customWidth="1" min="7" max="7" width="25.38"/>
     <col customWidth="1" min="9" max="9" width="8.63"/>
@@ -3216,58 +3274,58 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38">
+      <c r="H3" s="36"/>
+      <c r="I3" s="37">
         <v>45050.0</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39" t="s">
+      <c r="J3" s="36"/>
+      <c r="K3" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
@@ -3278,249 +3336,251 @@
       <c r="K4" s="23"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="42" t="s">
         <v>32</v>
       </c>
       <c r="K5" s="23"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>1.0</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="45" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="45" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="41"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="23"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <v>2.0</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="45" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="45" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="41"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="23"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="32">
+      <c r="B8" s="31">
         <v>3.0</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="45" t="s">
+      <c r="G8" s="32"/>
+      <c r="H8" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="41"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="23"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>4.0</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="44" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="45" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="46"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="23"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="32">
+      <c r="B10" s="31">
         <v>5.0</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="47" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="45" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="46"/>
+      <c r="J10" s="43"/>
       <c r="K10" s="23"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>6.0</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="45" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="45" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="23"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <v>7.0</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="47" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="45" t="s">
+      <c r="G12" s="32"/>
+      <c r="H12" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="46"/>
+      <c r="J12" s="43"/>
       <c r="K12" s="23"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <v>8.0</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="45" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="45" t="s">
+      <c r="G13" s="32"/>
+      <c r="H13" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="46"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="23"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="32">
+      <c r="B14" s="31">
         <v>9.0</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="47" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="45" t="s">
+      <c r="G14" s="32"/>
+      <c r="H14" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="46"/>
+      <c r="J14" s="43"/>
       <c r="K14" s="23"/>
     </row>
     <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="48"/>
+      <c r="B17" s="46" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="20" ht="72.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -4505,11 +4565,11 @@
   <mergeCells count="14">
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B17:K20"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B17:K20"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
@@ -4535,7 +4595,6 @@
     <col customWidth="1" min="1" max="1" width="4.63"/>
     <col customWidth="1" min="2" max="3" width="8.38"/>
     <col customWidth="1" min="4" max="4" width="8.63"/>
-    <col customWidth="1" min="5" max="6" width="12.63"/>
     <col customWidth="1" min="7" max="7" width="25.38"/>
     <col customWidth="1" min="9" max="9" width="8.63"/>
     <col customWidth="1" min="10" max="10" width="9.13"/>
@@ -4544,58 +4603,58 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38">
+      <c r="H3" s="36"/>
+      <c r="I3" s="37">
         <v>45050.0</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39" t="s">
+      <c r="J3" s="36"/>
+      <c r="K3" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
@@ -4606,204 +4665,206 @@
       <c r="K4" s="23"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="42" t="s">
         <v>32</v>
       </c>
       <c r="K5" s="23"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>1.0</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="45" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="41"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="23"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <v>2.0</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="45" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="45" t="s">
+      <c r="F7" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="41"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="23"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="32">
+      <c r="B8" s="31">
         <v>3.0</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="45" t="s">
+      <c r="E8" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="49" t="s">
+      <c r="F8" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="41"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="23"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>4.0</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="45" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="45" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="46"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="23"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="32">
+      <c r="B10" s="31">
         <v>5.0</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="47" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="45" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="46"/>
+      <c r="J10" s="43"/>
       <c r="K10" s="23"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="34">
+      <c r="A11" s="48"/>
+      <c r="B11" s="33">
         <v>5.0</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52" t="s">
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="53" t="s">
+      <c r="G11" s="49"/>
+      <c r="H11" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="54"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="13"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="56"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="48"/>
+      <c r="B17" s="46" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="20" ht="38.25" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -5787,9 +5848,9 @@
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B17:K20"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B17:K20"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
@@ -5815,7 +5876,6 @@
     <col customWidth="1" min="1" max="1" width="4.63"/>
     <col customWidth="1" min="2" max="3" width="8.38"/>
     <col customWidth="1" min="4" max="4" width="8.63"/>
-    <col customWidth="1" min="5" max="6" width="12.63"/>
     <col customWidth="1" min="7" max="7" width="25.38"/>
     <col customWidth="1" min="9" max="9" width="8.63"/>
     <col customWidth="1" min="10" max="10" width="9.13"/>
@@ -5824,58 +5884,58 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38">
+      <c r="H3" s="36"/>
+      <c r="I3" s="37">
         <v>45050.0</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39" t="s">
+      <c r="J3" s="36"/>
+      <c r="K3" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
@@ -5886,209 +5946,211 @@
       <c r="K4" s="23"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="42" t="s">
         <v>32</v>
       </c>
       <c r="K5" s="23"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>1.0</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="45" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="41"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="23"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <v>2.0</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="45" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="B8" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="40"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="B9" s="31">
+        <v>4.0</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="44" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="23"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="32">
-        <v>3.0</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="44" t="s">
+      <c r="J9" s="43"/>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10" s="31">
+        <v>5.0</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="44" t="s">
+      <c r="J10" s="43"/>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="B11" s="31">
+        <v>5.0</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="23"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="32">
-        <v>4.0</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="44" t="s">
+      <c r="J11" s="43"/>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12" s="31">
+        <v>5.0</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="23"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="32">
-        <v>5.0</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="23"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="32">
-        <v>5.0</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="23"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="32">
-        <v>5.0</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="46"/>
+      <c r="J12" s="43"/>
       <c r="K12" s="23"/>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="48"/>
+      <c r="B17" s="46" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="20" ht="48.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -7073,9 +7135,9 @@
   <mergeCells count="12">
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B17:K20"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B17:K20"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
@@ -7101,7 +7163,6 @@
     <col customWidth="1" min="1" max="1" width="4.63"/>
     <col customWidth="1" min="2" max="3" width="8.38"/>
     <col customWidth="1" min="4" max="4" width="8.63"/>
-    <col customWidth="1" min="5" max="6" width="12.63"/>
     <col customWidth="1" min="7" max="7" width="25.38"/>
     <col customWidth="1" min="9" max="9" width="8.63"/>
     <col customWidth="1" min="10" max="10" width="9.13"/>
@@ -7110,58 +7171,58 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="35" t="s">
-        <v>64</v>
+      <c r="B3" s="34" t="s">
+        <v>67</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38">
+      <c r="H3" s="36"/>
+      <c r="I3" s="37">
         <v>45050.0</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39" t="s">
+      <c r="J3" s="36"/>
+      <c r="K3" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
@@ -7172,190 +7233,192 @@
       <c r="K4" s="23"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="42" t="s">
         <v>32</v>
       </c>
       <c r="K5" s="23"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>1.0</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="45" t="s">
+      <c r="E6" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="41"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="23"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <v>2.0</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="44" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="45" t="s">
+      <c r="E7" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="41"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="23"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="32">
+      <c r="B8" s="31">
         <v>3.0</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="49" t="s">
+      <c r="E8" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="41"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="23"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>4.0</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="45" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="45" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="46"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="23"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="32">
+      <c r="B10" s="31">
         <v>5.0</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="47" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="45" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="46"/>
+      <c r="J10" s="43"/>
       <c r="K10" s="23"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>5.0</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="47" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="45" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="23"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="56"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="48"/>
+      <c r="B17" s="46" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="20" ht="42.0" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -8338,16 +8401,16 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J9:K9"/>
     <mergeCell ref="B17:K20"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
   </mergeCells>
   <drawing r:id="rId1"/>
@@ -8367,7 +8430,6 @@
     <col customWidth="1" min="1" max="1" width="4.63"/>
     <col customWidth="1" min="2" max="3" width="8.38"/>
     <col customWidth="1" min="4" max="4" width="8.63"/>
-    <col customWidth="1" min="5" max="6" width="12.63"/>
     <col customWidth="1" min="7" max="7" width="25.38"/>
     <col customWidth="1" min="9" max="9" width="8.63"/>
     <col customWidth="1" min="10" max="10" width="9.13"/>
@@ -8376,58 +8438,58 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="35" t="s">
-        <v>64</v>
+      <c r="B3" s="34" t="s">
+        <v>67</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="36" t="s">
+      <c r="F3" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38">
+      <c r="H3" s="36"/>
+      <c r="I3" s="37">
         <v>45050.0</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39" t="s">
+      <c r="J3" s="36"/>
+      <c r="K3" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
@@ -8438,186 +8500,188 @@
       <c r="K4" s="23"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="42" t="s">
         <v>32</v>
       </c>
       <c r="K5" s="23"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>1.0</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="B7" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="B8" s="31">
+        <v>3.0</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="45" t="s">
+      <c r="I8" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="40"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="B9" s="31">
+        <v>4.0</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="C7" s="44" t="s">
+      <c r="I9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="J9" s="43"/>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10" s="31">
+        <v>5.0</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="23"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="32">
-        <v>3.0</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="44" t="s">
+      <c r="J10" s="43"/>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="B11" s="31">
+        <v>5.0</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="23"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="32">
-        <v>4.0</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="23"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="32">
-        <v>5.0</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="23"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="32">
-        <v>5.0</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="23"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="56"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="48"/>
+      <c r="B17" s="54" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="20" ht="34.5" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -9600,16 +9664,16 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J9:K9"/>
     <mergeCell ref="B17:K20"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
   </mergeCells>
   <drawing r:id="rId1"/>
@@ -9629,7 +9693,6 @@
     <col customWidth="1" min="1" max="1" width="4.63"/>
     <col customWidth="1" min="2" max="3" width="8.38"/>
     <col customWidth="1" min="4" max="4" width="8.63"/>
-    <col customWidth="1" min="5" max="6" width="12.63"/>
     <col customWidth="1" min="7" max="7" width="25.38"/>
     <col customWidth="1" min="9" max="9" width="8.63"/>
     <col customWidth="1" min="10" max="10" width="9.13"/>
@@ -9638,58 +9701,58 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="35" t="s">
-        <v>64</v>
+      <c r="B3" s="34" t="s">
+        <v>67</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38">
+      <c r="H3" s="36"/>
+      <c r="I3" s="37">
         <v>45050.0</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39" t="s">
+      <c r="J3" s="36"/>
+      <c r="K3" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
@@ -9700,184 +9763,186 @@
       <c r="K4" s="23"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="42" t="s">
         <v>32</v>
       </c>
       <c r="K5" s="23"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>1.0</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="45" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="41"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="23"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <v>2.0</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="45" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="41"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="23"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="32">
+      <c r="B8" s="31">
         <v>3.0</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="44" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="41"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="23"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>4.0</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="44" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="46"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="23"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="32">
+      <c r="B10" s="31">
         <v>5.0</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="47" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="45" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="46"/>
+      <c r="J10" s="43"/>
       <c r="K10" s="23"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>5.0</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="47" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="45" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="23"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="56"/>
+      <c r="B12" s="53"/>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="48"/>
+      <c r="B17" s="54" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="20" ht="46.5" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -10860,16 +10925,16 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B17:K20"/>
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C4:K4"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J5:K5"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B17:K20"/>
-    <mergeCell ref="B2:E2"/>
     <mergeCell ref="J8:K8"/>
   </mergeCells>
   <drawing r:id="rId1"/>

--- a/doc/DB設計 テーブル定義書 .xlsx
+++ b/doc/DB設計 テーブル定義書 .xlsx
@@ -190,17 +190,17 @@
     <t>SQL QUERY</t>
   </si>
   <si>
-    <t>CREATE TABLE kadaiDB_202305.t_onair_kanri (
-  `ID` varchar(8) NOT NULL,
-  `ONAIR_DAY` DATETIME DEFAULT NULL,
-  `PROGRAM_ID` varchar(8) DEFAULT NULL,
-  `TALENT_ID` varchar(8) DEFAULT NULL,
-  `NENTSUKI` int(6) DEFAULT NULL,
-  `SHU` int(1) DEFAULT NULL,
-  `DELETE_FLG` int(1) DEFAULT NULL,
-  `TOROKU_DAY` date DEFAULT NULL,
-  `KOUSHIN_DAY` date DEFAULT NULL
-)</t>
+    <t>CREATE TABLE `T_ONAIR_KANRI` (
+  `ID` varchar(8) CHARACTER SET utf8mb4 COLLATE utf8mb4_0900_ai_ci NOT NULL COMMENT 'ID',
+  `ONAIR_DAY` datetime DEFAULT NULL COMMENT 'オンエア日',
+  `PROGRAM_ID` varchar(8) CHARACTER SET utf8mb4 COLLATE utf8mb4_0900_ai_ci DEFAULT NULL COMMENT '番組ID',
+  `TALENT_ID` varchar(8) CHARACTER SET utf8mb4 COLLATE utf8mb4_0900_ai_ci DEFAULT NULL COMMENT 'タレントID',
+  `NENTSUKI` int DEFAULT NULL COMMENT '対象年月',
+  `SHU` int DEFAULT NULL COMMENT '対象週',
+  `DELETE_FLG` int DEFAULT NULL COMMENT '論理削除フラグ',
+  `TOROKU_DAY` timestamp NULL DEFAULT NULL COMMENT '登録日付',
+  `KOUSHIN_DAY` timestamp NULL DEFAULT NULL COMMENT '更新日'
+) ENGINE=InnoDB DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci;</t>
   </si>
   <si>
     <t>TALENT_NAME</t>
@@ -218,15 +218,14 @@
     <t>ジャンルID</t>
   </si>
   <si>
-    <t xml:space="preserve">CREATE TABLE kadaiDB_202305.m_talent (
-  `TALENT_ID` varchar(8) NOT NULL,
-  `TALENT_NAME` varchar(30) DEFAULT NULL,
-  `GENRE_ID` int(1) DEFAULT NULL,
-  `DELETE_FLG` int(1) DEFAULT NULL,
-  `TOROKU_DAY` date DEFAULT NULL,
-  `KOUSHIN_DAY` date DEFAULT NULL
-)
-</t>
+    <t>CREATE TABLE `M_TALENT` (
+  `TALENT_ID` varchar(8) CHARACTER SET utf8mb4 COLLATE utf8mb4_0900_ai_ci NOT NULL COMMENT 'タレントID',
+  `TALENT_NAME` varchar(30) CHARACTER SET utf8mb4 COLLATE utf8mb4_0900_ai_ci DEFAULT NULL COMMENT 'タレント名',
+  `GENRE_ID` int DEFAULT NULL COMMENT 'ジャンルID',
+  `DELETE_FLG` int DEFAULT NULL COMMENT '論理削除フラグ',
+  `TOROKU_DAY` timestamp NULL DEFAULT NULL COMMENT '登録日付',
+  `KOUSHIN_DAY` timestamp NULL DEFAULT NULL COMMENT '更新日'
+) ENGINE=InnoDB DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci;</t>
   </si>
   <si>
     <t>PROGRAM_NAME</t>
@@ -241,15 +240,15 @@
     <t>チャンネルID</t>
   </si>
   <si>
-    <t>CREATE TABLE kadaiDB_202305.m_program (
-  `PROGRAM_ID` varchar(8) NOT NULL,
-  `PROGRAM_NAME` varchar(30) DEFAULT NULL,
-  `CHANEL_ID` int(1) DEFAULT NULL,
-  `GENRE_ID` int(1) DEFAULT NULL,
-  `DELETE_FLG` int(1) DEFAULT NULL,
-  `TOROKU_DAY` date DEFAULT NULL,
-  `KOUSHIN_DAY` date DEFAULT NULL
-)</t>
+    <t>CREATE TABLE `M_PROGRAM` (
+  `PROGRAM_ID` varchar(8) CHARACTER SET utf8mb4 COLLATE utf8mb4_0900_ai_ci NOT NULL COMMENT '番組ID',
+  `PROGRAM_NAME` varchar(30) CHARACTER SET utf8mb4 COLLATE utf8mb4_0900_ai_ci DEFAULT NULL COMMENT '番組名',
+  `CHANEL_ID` int DEFAULT NULL COMMENT 'チャンネルID',
+  `GENRE_ID` int DEFAULT NULL COMMENT 'ジャンルID',
+  `DELETE_FLG` int DEFAULT NULL COMMENT '論理削除フラグ',
+  `TOROKU_DAY` timestamp NULL DEFAULT NULL COMMENT '登録日付',
+  `KOUSHIN_DAY` timestamp NULL DEFAULT NULL COMMENT '更新日'
+) ENGINE=InnoDB DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci;</t>
   </si>
   <si>
     <t xml:space="preserve">Java課題(2023上期）			</t>
@@ -267,14 +266,14 @@
     <t>エリアID</t>
   </si>
   <si>
-    <t xml:space="preserve">CREATE TABLE kadaiDB_202305.m_chanel_kyoku (
-  `CHANEL_ID` int(1) NOT NULL,
-  `CHANEL_KYOKU_ID` int(1) DEFAULT NULL,
-  `AREA_ID` int(1) DEFAULT NULL,
-  `DELETE_FLG` int(1) DEFAULT NULL,
-  `TOROKU_DAY` date DEFAULT NULL,
-  `KOUSHIN_DAY` date DEFAULT NULL
-) </t>
+    <t>CREATE TABLE `M_CHANEL_KYOKU` (
+  `CHANEL_ID` int NOT NULL COMMENT 'チャンネルID',
+  `CHANEL_KYOKU_ID` int DEFAULT NULL COMMENT 'チャンネル局ID',
+  `AREA_ID` int DEFAULT NULL COMMENT 'エリアID',
+  `DELETE_FLG` int DEFAULT NULL COMMENT '論理削除フラグ',
+  `TOROKU_DAY` timestamp NULL DEFAULT NULL COMMENT '登録日付',
+  `KOUSHIN_DAY` timestamp NULL DEFAULT NULL COMMENT '更新日'
+) ENGINE=InnoDB DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci;</t>
   </si>
   <si>
     <t xml:space="preserve">    M_KBN_GENRE</t>
@@ -289,15 +288,14 @@
     <t>ジャンル</t>
   </si>
   <si>
-    <t xml:space="preserve">
-CREATE TABLE kadaiDB_202305.m_kbn_genre (
-  `GENRE_ID` int(1) NOT NULL,
-  `JYUNJYO` int(1) NOT NULL,
-  `GENRE` varchar(30) DEFAULT NULL,
-  `DELETE_FLG` int(1) DEFAULT NULL,
-  `TOROKU_DAY` date DEFAULT NULL,
-  `KOUSHIN_DAY` date DEFAULT NULL
-) </t>
+    <t>CREATE TABLE `M_KBN_GENRE` (
+  `GENRE_ID` int NOT NULL COMMENT 'ジャンルID',
+  `JYUNJYO` int DEFAULT NULL COMMENT '順序',
+  `GENRE` varchar(30) CHARACTER SET utf8mb4 COLLATE utf8mb4_0900_ai_ci DEFAULT NULL COMMENT 'ジャンル',
+  `DELETE_FLG` int DEFAULT NULL COMMENT '論理削除フラグ',
+  `TOROKU_DAY` timestamp NULL DEFAULT NULL COMMENT '登録日付',
+  `KOUSHIN_DAY` timestamp NULL DEFAULT NULL COMMENT '更新日'
+) ENGINE=InnoDB DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci;</t>
   </si>
   <si>
     <t>NENTSUKI</t>
@@ -327,15 +325,14 @@
     <t>週の終了日（土曜日）</t>
   </si>
   <si>
-    <t xml:space="preserve">CREATE TABLE kadaiDB_202305.m_nentsuki_shu_kanri (
-  `NENTSUKI` int(4) NOT NULL,
-  `SHU` int(1) NOT NULL,
-  `SHU_FROM` date DEFAULT NULL,
-  `SHU_TO` date DEFAULT NULL,
-  `TOROKU_DAY` date DEFAULT NULL,
-  `KOUSHIN_DAY` date DEFAULT NULL
-)
-</t>
+    <t>CREATE TABLE `M_NENTSUKI_SHU_KANRI` (
+  `NENTSUKI` int NOT NULL COMMENT '年月',
+  `SHU` int NOT NULL COMMENT '週',
+  `SHU_FROM` date DEFAULT NULL COMMENT '週の開始日（日曜日）',
+  `SHU_TO` date DEFAULT NULL COMMENT '週の終了日（土曜日）',
+  `TOROKU_DAY` timestamp NULL DEFAULT NULL COMMENT '登録日付',
+  `KOUSHIN_DAY` timestamp NULL DEFAULT NULL COMMENT '更新日'
+) ENGINE=InnoDB DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci;</t>
   </si>
 </sst>
 </file>

--- a/doc/DB設計 テーブル定義書 .xlsx
+++ b/doc/DB設計 テーブル定義書 .xlsx
@@ -191,16 +191,16 @@
   </si>
   <si>
     <t>CREATE TABLE `T_ONAIR_KANRI` (
-  `ID` varchar(8) CHARACTER SET utf8mb4 COLLATE utf8mb4_0900_ai_ci NOT NULL COMMENT 'ID',
+  `ID` varchar(8) NOT NULL COMMENT 'ID',
   `ONAIR_DAY` datetime DEFAULT NULL COMMENT 'オンエア日',
-  `PROGRAM_ID` varchar(8) CHARACTER SET utf8mb4 COLLATE utf8mb4_0900_ai_ci DEFAULT NULL COMMENT '番組ID',
-  `TALENT_ID` varchar(8) CHARACTER SET utf8mb4 COLLATE utf8mb4_0900_ai_ci DEFAULT NULL COMMENT 'タレントID',
+  `PROGRAM_ID` varchar(8) DEFAULT NULL COMMENT '番組ID',
+  `TALENT_ID` varchar(8) DEFAULT NULL COMMENT 'タレントID',
   `NENTSUKI` int DEFAULT NULL COMMENT '対象年月',
   `SHU` int DEFAULT NULL COMMENT '対象週',
   `DELETE_FLG` int DEFAULT NULL COMMENT '論理削除フラグ',
   `TOROKU_DAY` timestamp NULL DEFAULT NULL COMMENT '登録日付',
   `KOUSHIN_DAY` timestamp NULL DEFAULT NULL COMMENT '更新日'
-) ENGINE=InnoDB DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci;</t>
+);</t>
   </si>
   <si>
     <t>TALENT_NAME</t>
@@ -219,13 +219,13 @@
   </si>
   <si>
     <t>CREATE TABLE `M_TALENT` (
-  `TALENT_ID` varchar(8) CHARACTER SET utf8mb4 COLLATE utf8mb4_0900_ai_ci NOT NULL COMMENT 'タレントID',
-  `TALENT_NAME` varchar(30) CHARACTER SET utf8mb4 COLLATE utf8mb4_0900_ai_ci DEFAULT NULL COMMENT 'タレント名',
+  `TALENT_ID` varchar(8) NOT NULL COMMENT 'タレントID',
+  `TALENT_NAME` varchar(30) DEFAULT NULL COMMENT 'タレント名',
   `GENRE_ID` int DEFAULT NULL COMMENT 'ジャンルID',
   `DELETE_FLG` int DEFAULT NULL COMMENT '論理削除フラグ',
   `TOROKU_DAY` timestamp NULL DEFAULT NULL COMMENT '登録日付',
   `KOUSHIN_DAY` timestamp NULL DEFAULT NULL COMMENT '更新日'
-) ENGINE=InnoDB DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci;</t>
+);</t>
   </si>
   <si>
     <t>PROGRAM_NAME</t>
@@ -241,14 +241,14 @@
   </si>
   <si>
     <t>CREATE TABLE `M_PROGRAM` (
-  `PROGRAM_ID` varchar(8) CHARACTER SET utf8mb4 COLLATE utf8mb4_0900_ai_ci NOT NULL COMMENT '番組ID',
-  `PROGRAM_NAME` varchar(30) CHARACTER SET utf8mb4 COLLATE utf8mb4_0900_ai_ci DEFAULT NULL COMMENT '番組名',
+  `PROGRAM_ID` varchar(8) NOT NULL COMMENT '番組ID',
+  `PROGRAM_NAME` varchar(30) DEFAULT NULL COMMENT '番組名',
   `CHANEL_ID` int DEFAULT NULL COMMENT 'チャンネルID',
   `GENRE_ID` int DEFAULT NULL COMMENT 'ジャンルID',
   `DELETE_FLG` int DEFAULT NULL COMMENT '論理削除フラグ',
   `TOROKU_DAY` timestamp NULL DEFAULT NULL COMMENT '登録日付',
   `KOUSHIN_DAY` timestamp NULL DEFAULT NULL COMMENT '更新日'
-) ENGINE=InnoDB DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci;</t>
+);</t>
   </si>
   <si>
     <t xml:space="preserve">Java課題(2023上期）			</t>
@@ -273,7 +273,7 @@
   `DELETE_FLG` int DEFAULT NULL COMMENT '論理削除フラグ',
   `TOROKU_DAY` timestamp NULL DEFAULT NULL COMMENT '登録日付',
   `KOUSHIN_DAY` timestamp NULL DEFAULT NULL COMMENT '更新日'
-) ENGINE=InnoDB DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci;</t>
+);</t>
   </si>
   <si>
     <t xml:space="preserve">    M_KBN_GENRE</t>
@@ -291,11 +291,11 @@
     <t>CREATE TABLE `M_KBN_GENRE` (
   `GENRE_ID` int NOT NULL COMMENT 'ジャンルID',
   `JYUNJYO` int DEFAULT NULL COMMENT '順序',
-  `GENRE` varchar(30) CHARACTER SET utf8mb4 COLLATE utf8mb4_0900_ai_ci DEFAULT NULL COMMENT 'ジャンル',
+  `GENRE` varchar(30) DEFAULT NULL COMMENT 'ジャンル',
   `DELETE_FLG` int DEFAULT NULL COMMENT '論理削除フラグ',
   `TOROKU_DAY` timestamp NULL DEFAULT NULL COMMENT '登録日付',
   `KOUSHIN_DAY` timestamp NULL DEFAULT NULL COMMENT '更新日'
-) ENGINE=InnoDB DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci;</t>
+);</t>
   </si>
   <si>
     <t>NENTSUKI</t>
@@ -332,7 +332,7 @@
   `SHU_TO` date DEFAULT NULL COMMENT '週の終了日（土曜日）',
   `TOROKU_DAY` timestamp NULL DEFAULT NULL COMMENT '登録日付',
   `KOUSHIN_DAY` timestamp NULL DEFAULT NULL COMMENT '更新日'
-) ENGINE=InnoDB DEFAULT CHARSET=utf8mb4 COLLATE=utf8mb4_0900_ai_ci;</t>
+) ;</t>
   </si>
 </sst>
 </file>
